--- a/src/analysis_examples/circadb/results_lomb/cosinor_10525313_atxn2_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10525313_atxn2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.32168635388735634, 0.44645989631565963]</t>
+          <t>[0.3200228773711015, 0.44812337283191445]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.185962522105456e-11</v>
+        <v>3.572231399573411e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.185962522105456e-11</v>
+        <v>3.572231399573411e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.767315923399309</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.43890890523079207, 0.5042725282770754]</t>
+          <t>[0.438912844534866, 0.5042685889730014]</t>
         </is>
       </c>
       <c r="U2" t="n">
